--- a/estab/ver/muestra_ver_estab.xlsx
+++ b/estab/ver/muestra_ver_estab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inegi\eramo\prueba_piloto_2021\muestra\muestra_eramo_2021\estab\ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832EB0A8-2B50-4E86-9B78-A7F59644494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D5BB18-90AB-4138-A082-3A5169D2D48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muestra_ver_estab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="733">
   <si>
     <t>id</t>
   </si>
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3058,10 +3058,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB98" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:AQ112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14816,6 +14818,110 @@
         <v>72251</v>
       </c>
     </row>
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>301935</v>
+      </c>
+      <c r="B112">
+        <v>4312981</v>
+      </c>
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112">
+        <v>311311</v>
+      </c>
+      <c r="F112" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>64</v>
+      </c>
+      <c r="H112" t="s">
+        <v>49</v>
+      </c>
+      <c r="I112" t="s">
+        <v>127</v>
+      </c>
+      <c r="J112" t="s">
+        <v>49</v>
+      </c>
+      <c r="K112" t="s">
+        <v>128</v>
+      </c>
+      <c r="L112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M112" t="s">
+        <v>129</v>
+      </c>
+      <c r="N112" t="s">
+        <v>130</v>
+      </c>
+      <c r="O112" t="s">
+        <v>131</v>
+      </c>
+      <c r="P112">
+        <v>540</v>
+      </c>
+      <c r="V112" t="s">
+        <v>70</v>
+      </c>
+      <c r="W112" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA112">
+        <v>91910</v>
+      </c>
+      <c r="AB112">
+        <v>30</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD112">
+        <v>193</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF112">
+        <v>1</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI112">
+        <v>12</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN112">
+        <v>19.177569930000001</v>
+      </c>
+      <c r="AO112">
+        <v>-96.128684609999993</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ112">
+        <v>31131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
